--- a/data/income_statement/3digits/total/631_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/631_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>631-Data processing, hosting and related activities; web portals</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>631-Data processing, hosting and related activities; web portals</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,20 +841,25 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>264217.34921</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>347493.78797</v>
+        <v>347493.7879699999</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>440835.11915</v>
@@ -965,28 +871,33 @@
         <v>605785.62347</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>733202.85876</v>
+        <v>737701.3268500001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>860035.6723099999</v>
+        <v>872203.0893199999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1091606.7225</v>
+        <v>1094983.80371</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1307688.25865</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4071916.57284</v>
+        <v>4077296.16069</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5725780.54655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5741165.743770001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6624711.348</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>228535.37224</v>
@@ -995,7 +906,7 @@
         <v>307354.88298</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>389586.04656</v>
+        <v>389586.0465599999</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>420405.18303</v>
@@ -1004,28 +915,33 @@
         <v>540002.34899</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>632514.61918</v>
+        <v>636999.21401</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>734836.62788</v>
+        <v>744768.85568</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>914280.8400399999</v>
+        <v>917544.65963</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1091183.6374</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3494058.76273</v>
+        <v>3496592.46001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4164591.356209999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4176335.8818</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5399173.941</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>28363.86977</v>
@@ -1034,7 +950,7 @@
         <v>32621.08797</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>45547.36009999999</v>
+        <v>45547.3601</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>53135.55024</v>
@@ -1043,28 +959,33 @@
         <v>57577.31462</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>89308.12878999999</v>
+        <v>89318.80239999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>109464.8037</v>
+        <v>111699.99291</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>147171.23997</v>
+        <v>147283.00159</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>183964.95224</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>546413.3735900001</v>
+        <v>549258.53915</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1514867.33449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1518453.01789</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1171160.986</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>7318.1072</v>
@@ -1073,40 +994,45 @@
         <v>7517.81702</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>5701.71249</v>
+        <v>5701.712489999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>7118.82988</v>
+        <v>7118.829880000001</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>8205.959859999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>11380.11079</v>
+        <v>11383.31044</v>
       </c>
       <c r="I8" s="48" t="n">
         <v>15734.24073</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>30154.64249</v>
+        <v>30156.14249</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>32539.66901</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>31444.43652</v>
+        <v>31445.16153</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>46321.85585</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>46376.84408</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>54376.421</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4664.085279999999</v>
+        <v>4664.08528</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>12804.93158</v>
@@ -1127,22 +1053,27 @@
         <v>16008.46774</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>17591.89474</v>
+        <v>17593.38474</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>23694.89926</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>135938.16481</v>
+        <v>135941.32413</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>182989.77012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>182991.32012</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>179251.97</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2939.27873</v>
@@ -1166,22 +1097,27 @@
         <v>14527.46905</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>10230.55396</v>
+        <v>10232.04396</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>11195.81393</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>121290.6595</v>
+        <v>121293.81882</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>176933.05563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>176934.60563</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>166733.822</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1703.36193</v>
@@ -1202,7 +1138,7 @@
         <v>8490.915140000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>850.4480599999999</v>
+        <v>850.4480600000001</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>7360.30366</v>
@@ -1216,17 +1152,22 @@
       <c r="M11" s="48" t="n">
         <v>5880.462739999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>12483.671</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>21.44462</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>76.58626999999998</v>
+        <v>76.58627</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>64.68285</v>
@@ -1241,7 +1182,7 @@
         <v>19.77374</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>630.5506300000001</v>
+        <v>630.55063</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>1.03712</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>176.25175</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>34.477</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>259553.26393</v>
@@ -1277,28 +1223,33 @@
         <v>580084.89836</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>709549.7709000001</v>
+        <v>714048.23899</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>844027.2045699999</v>
+        <v>856194.62158</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1074014.82776</v>
+        <v>1077390.41897</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1283993.35939</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3935978.40803</v>
+        <v>3941354.83656</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5542790.776430001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5558174.423649999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6445459.378</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>151285.5336</v>
@@ -1316,28 +1267,33 @@
         <v>340753.74924</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>402990.42089</v>
+        <v>406927.0217100001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>481347.3029400001</v>
+        <v>491229.73465</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>626974.51403</v>
+        <v>629653.96346</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>746831.45958</v>
+        <v>746831.4595799999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2145321.61016</v>
+        <v>2152541.80898</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2578147.44393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2589548.87286</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3241109.712</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>33519.57886</v>
@@ -1355,7 +1311,7 @@
         <v>30758.90244</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>39498.28008</v>
+        <v>39498.57772000001</v>
       </c>
       <c r="I15" s="48" t="n">
         <v>29792.18361</v>
@@ -1370,19 +1326,24 @@
         <v>31246.56627</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>44927.50759</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>47131.8165</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>42578.948</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>31455.11193</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>26832.39580000001</v>
+        <v>26832.3958</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>34798.91687000001</v>
@@ -1394,10 +1355,10 @@
         <v>20585.06012</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>27798.00556</v>
+        <v>28003.16392</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>40601.39438000001</v>
+        <v>45306.27633</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>85779.99229000001</v>
@@ -1406,16 +1367,21 @@
         <v>93712.64821000001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1091165.15956</v>
+        <v>1091222.34003</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1492305.87222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1495674.13292</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1946395.706</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>86300.30622</v>
@@ -1433,28 +1399,33 @@
         <v>289326.00074</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>335200.47388</v>
+        <v>338931.6187</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>410235.33331</v>
+        <v>415412.88307</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>517929.94434</v>
+        <v>520609.3937699999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>620762.05236</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1016692.87222</v>
+        <v>1023855.89057</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1028297.8783</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1034126.73762</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1239587.945</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>10.53659</v>
@@ -1484,16 +1455,21 @@
         <v>627.25195</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>6217.01211</v>
+        <v>6217.012110000001</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>12616.18582</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>12547.113</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>108267.73033</v>
@@ -1511,28 +1487,33 @@
         <v>239331.14912</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>306559.35001</v>
+        <v>307121.21728</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>362679.90163</v>
+        <v>364964.8869300001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>447040.31373</v>
+        <v>447736.45551</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>537161.8998100001</v>
+        <v>537161.89981</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1790656.79787</v>
+        <v>1788813.02758</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2964643.3325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2968625.55079</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3204349.666</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>85157.95334000001</v>
@@ -1550,28 +1531,33 @@
         <v>222736.42403</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>289833.73478</v>
+        <v>291813.51731</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>350941.25138</v>
+        <v>353296.4243</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>421976.2695</v>
+        <v>422297.67921</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>523932.58431</v>
+        <v>523932.5843100001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1147951.77604</v>
+        <v>1148863.431</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1956337.69954</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1958769.78281</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2065754.6</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1888.62983</v>
@@ -1592,7 +1578,7 @@
         <v>3911.95806</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>8667.036620000001</v>
+        <v>8667.036619999999</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>11451.23415</v>
@@ -1604,58 +1590,68 @@
         <v>27009.82875</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>51470.93793000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>49658.49066999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>70145.762</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>28861.548</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>48839.30958</v>
+        <v>48839.30958000001</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>61399.2631</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>71234.22124</v>
+        <v>71234.22124000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>86262.27059</v>
+        <v>86262.27058999999</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>111752.30454</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>125895.55994</v>
+        <v>125902.06074</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>185574.70044</v>
+        <v>185636.29879</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>242144.3304</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>395873.49755</v>
+        <v>395923.1574500001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1009100.00783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1011324.19136</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>901346.438</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>54407.77551</v>
+        <v>54407.77551000001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>68797.9466</v>
+        <v>68797.94660000001</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>91553.90848</v>
@@ -1667,28 +1663,33 @@
         <v>135382.49975</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>174169.47218</v>
+        <v>176149.25471</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>216378.65482</v>
+        <v>218727.32694</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>224950.33491</v>
+        <v>225210.14627</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>265089.62677</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>725068.44974</v>
+        <v>725930.4448000001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>895766.7537800001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>897787.10078</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1094262.4</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>23109.77699</v>
@@ -1706,28 +1707,33 @@
         <v>16594.72509</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>16725.61523</v>
+        <v>15307.69997</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>11738.65025</v>
+        <v>11668.46263</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>25064.04423</v>
+        <v>25438.7763</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>13229.3155</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>642705.0218300001</v>
+        <v>639949.5965799999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1008305.63296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1009855.76798</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1138595.066</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>5406.70091</v>
@@ -1745,28 +1751,33 @@
         <v>18119.75788</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>23671.78046</v>
+        <v>23828.08744</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>35850.61997</v>
+        <v>38926.33086</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>38083.87505</v>
+        <v>38223.70331</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>54576.4904</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>322790.84889</v>
+        <v>323333.00099</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>216503.55094</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>215408.14511</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>716822.807</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1504.41147</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>11202.78</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>5.50737</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2202.6636</v>
@@ -1862,28 +1883,33 @@
         <v>5514.74639</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6405.366919999999</v>
+        <v>6418.984640000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>9356.55668</v>
+        <v>9373.002440000002</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>10517.25303</v>
+        <v>10520.82979</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>15215.33525</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>48045.41857000001</v>
+        <v>48045.41857</v>
       </c>
       <c r="M28" s="48" t="n">
         <v>64171.74834999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>59429.905</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>189.13222</v>
@@ -1907,22 +1933,27 @@
         <v>988.11172</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1025.10338</v>
+        <v>1138.71359</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>743.4649499999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1906.30258</v>
+        <v>1907.83644</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>2048.73653</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>3161.428</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>20.23236</v>
@@ -1937,7 +1968,7 @@
         <v>259.53251</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>804.28387</v>
+        <v>804.2838699999999</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>441.55344</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>10403.14246</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>9710.834999999999</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>132.20501</v>
@@ -1979,7 +2015,7 @@
         <v>318.84477</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>120.47328</v>
+        <v>122.448</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>222.78692</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1757.86083</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>132719.683</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>2414.4802</v>
@@ -2018,28 +2059,33 @@
         <v>6325.00839</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>13992.46052</v>
+        <v>14104.68902</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>22159.42052</v>
+        <v>25218.68565</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>20928.87071</v>
+        <v>20938.92404</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>32056.2131</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>221289.29385</v>
+        <v>221831.46312</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>125133.30146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>125134.47041</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>446820</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>9.211499999999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0.95896</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>27.836</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0.00293</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>11.745</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>433.26865</v>
@@ -2126,7 +2182,7 @@
         <v>284.43725</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>355.4549299999999</v>
+        <v>355.45493</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>3560.84581</v>
@@ -2135,28 +2191,33 @@
         <v>3649.39555</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1658.62243</v>
+        <v>1687.10847</v>
       </c>
       <c r="I35" s="48" t="n">
         <v>2375.47383</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4487.28773</v>
+        <v>4499.875690000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4455.92953</v>
+        <v>4455.929529999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>17602.33791</v>
+        <v>17600.78688</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>11483.38795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10386.81317</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>53738.595</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>3948.69366</v>
@@ -2165,7 +2226,7 @@
         <v>4609.82196</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>9021.534940000001</v>
+        <v>9021.53494</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>8509.361570000001</v>
@@ -2174,28 +2235,33 @@
         <v>14347.04917</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>19911.45001</v>
+        <v>20477.8642</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>28831.07848</v>
+        <v>32518.48528</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>33264.72266</v>
+        <v>33271.93818</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>33746.69706000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>256736.90019</v>
+        <v>259173.07854</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>168698.67172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>168698.78786</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>548774.912</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>79.62524999999999</v>
@@ -2216,25 +2282,30 @@
         <v>848.3787</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>341.41593</v>
+        <v>342.60181</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2466.77982</v>
+        <v>2466.79062</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>1943.32483</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1472.0959</v>
+        <v>1472.14686</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7285.59551</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7285.71163</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>8080.476</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>176.12032</v>
@@ -2255,7 +2326,7 @@
         <v>2361.53918</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>2825.822189999999</v>
+        <v>2825.82219</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>2451.97548</v>
@@ -2264,16 +2335,21 @@
         <v>1622.87039</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>35293.75466</v>
+        <v>35293.75466000001</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>18886.03285</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>10692.59</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>1171.03413</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>81703.36199999999</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>3300.78313</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3058.659059999999</v>
+        <v>3058.65906</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>6924.33421</v>
+        <v>6924.334210000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5227.568770000001</v>
+        <v>5227.56877</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>10784.47429</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>13766.49153</v>
+        <v>14332.90572</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>23294.13325</v>
+        <v>26980.35417</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>25564.48852</v>
+        <v>25571.69324</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>26832.74216000001</v>
+        <v>26832.74216</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>202480.19883</v>
+        <v>204916.32622</v>
       </c>
       <c r="M40" s="48" t="n">
         <v>128210.53766</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>436149.29</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1.853</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>12.2298</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.48236</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>389.8296</v>
@@ -2456,28 +2552,33 @@
         <v>2617.44573</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3287.50152</v>
+        <v>3287.501520000001</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>15137.74797</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>13133.24177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>13133.24179</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>12149.194</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>6794.473050000001</v>
+        <v>6794.47305</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>7499.56022</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>8915.681940000002</v>
+        <v>8915.681939999999</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>16373.33341</v>
@@ -2486,31 +2587,36 @@
         <v>22682.8504</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>23532.64583</v>
+        <v>23715.48981</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>33856.25493</v>
+        <v>34314.65654</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>45414.65247</v>
+        <v>45456.56718999999</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>54182.53232</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>59830.32715</v>
+        <v>59948.5048</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>94575.77291999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>94577.63772</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>86393.762</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>6787.910019999999</v>
+        <v>6787.91002</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>7495.110890000001</v>
@@ -2525,28 +2631,33 @@
         <v>22679.26378</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>23519.45456</v>
+        <v>23702.29854</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>33855.12955</v>
+        <v>34313.53116000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>45408.63439</v>
+        <v>45450.48022</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>54143.35979</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>59749.71067</v>
+        <v>59867.88832</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>93255.64778</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>93257.51258</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>85730.476</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>6.563029999999999</v>
@@ -2570,10 +2681,10 @@
         <v>1.12538</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>6.01808</v>
+        <v>6.08697</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>39.17253</v>
+        <v>39.17253000000001</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>80.61648</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>1320.12514</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>663.2859999999999</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>17773.31119</v>
@@ -2600,31 +2716,36 @@
         <v>13224.89196</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-2315.4166</v>
+        <v>-2315.416600000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-3046.70015</v>
+        <v>-5057.566600000002</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-15098.06319</v>
+        <v>-16238.34833</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-15531.45585</v>
+        <v>-15066.02576</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-20123.42348</v>
+        <v>-20123.42347999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>648928.64338</v>
+        <v>644161.01423</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>961534.7392599998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>961987.48751</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1220249.199</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>3506.42478</v>
@@ -2642,28 +2763,33 @@
         <v>7095.884400000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>14616.64832</v>
+        <v>14665.32735</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>10874.30507</v>
+        <v>11143.28625</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>8254.666719999999</v>
+        <v>8254.88197</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>11607.64426</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>15057.20042</v>
+        <v>15062.99395</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>22763.57877</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>22909.74315</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>48822.612</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>961.7544799999999</v>
@@ -2684,7 +2810,7 @@
         <v>198.80624</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>95.83823</v>
+        <v>95.83823000000001</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>85.97368</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>589.4841699999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>8820.222</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>2544.6703</v>
@@ -2720,28 +2851,33 @@
         <v>6219.383400000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>14417.84208</v>
+        <v>14466.52111</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>10778.46684</v>
+        <v>11047.44802</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>8168.69304</v>
+        <v>8168.908289999999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>11424.40747</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>14315.77436</v>
+        <v>14321.56789</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>22174.0946</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>22320.25898</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>40002.39</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2177.38601</v>
@@ -2753,7 +2889,7 @@
         <v>14338.66113</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>6082.72764</v>
+        <v>6082.727640000001</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>7880.6255</v>
@@ -2762,25 +2898,30 @@
         <v>14235.18755</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>9975.17721</v>
+        <v>10177.73976</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>31923.12652</v>
+        <v>31953.12236</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>28917.37844</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>32637.82784</v>
+        <v>32658.74052</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>35922.85147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>35967.05331</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>47143.961</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>7.4375</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>931.15945</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>753.77</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1104.57983</v>
@@ -2843,7 +2989,7 @@
         <v>915.59673</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>514.44502</v>
+        <v>523.04844</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2357.43319</v>
@@ -2854,17 +3000,22 @@
       <c r="M53" s="48" t="n">
         <v>1393.99787</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>9643.811</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1065.36868</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>5205.81603</v>
+        <v>5205.816029999999</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>13661.74037</v>
@@ -2873,31 +3024,36 @@
         <v>5157.8355</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6527.490699999999</v>
+        <v>6527.4907</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>13262.68729</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>7218.55169</v>
+        <v>7421.11424</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>30039.70616000001</v>
+        <v>30061.09858</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>24949.02514</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>29324.3832</v>
+        <v>29345.29588</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>33597.69415</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>33641.89599</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>36746.38</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>19102.34996</v>
@@ -2906,37 +3062,42 @@
         <v>12132.10791</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>4974.318889999999</v>
+        <v>4974.31889</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>12532.15504</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-3100.157700000001</v>
+        <v>-3100.1577</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-2665.23938</v>
+        <v>-4627.426799999997</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-14198.93533</v>
+        <v>-15272.80184</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-39199.91565</v>
+        <v>-38764.26615</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-37433.15766</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>631348.01596</v>
+        <v>626565.2676600001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>948375.4665600001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>948930.1773499999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1221927.85</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>4548.285910000001</v>
@@ -2954,64 +3115,72 @@
         <v>7469.35371</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>9827.179340000001</v>
+        <v>9840.459620000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>12262.95329</v>
+        <v>12310.99138</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>12771.59688</v>
+        <v>12875.15189</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>19188.0689</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>150459.93264</v>
+        <v>150494.35818</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>221809.08937</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>222153.14725</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>275585.528</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>14554.06405</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>6415.318990000001</v>
+        <v>6415.318990000002</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-2126.257439999999</v>
+        <v>-2126.25744</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>4273.60782</v>
+        <v>4273.607819999998</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>-10569.51141</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-12492.41872</v>
+        <v>-14467.88642</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-26461.88862</v>
+        <v>-27583.79322</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-51971.51253</v>
+        <v>-51639.41804</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-56621.22656</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>480888.0833199999</v>
+        <v>476070.90948</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>726566.3771899999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>726777.0300999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>946342.322</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>312</v>
@@ -3047,25 +3219,28 @@
         <v>383</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>615</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>644</v>
+        <v>665</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>761</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>